--- a/pet-simulator/Excel/Doll_娃娃内容表.xlsx
+++ b/pet-simulator/Excel/Doll_娃娃内容表.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89653BB6-C134-4290-A5C1-C9F1D6B9F5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -200,46 +217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="36">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="mmmmm"/>
-    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="194" formatCode="#\ ??"/>
-    <numFmt numFmtId="195" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="198" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,13 +233,15 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -272,366 +253,34 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft JhengHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -639,252 +288,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -926,61 +343,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1238,26 +611,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2380952380952" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="13.2380952380952" style="1"/>
-    <col min="8" max="8" width="83.7142857142857" customWidth="1"/>
-    <col min="1023" max="1023" width="11.5238095238095" customWidth="1"/>
+    <col min="1" max="5" width="13.28515625" style="1"/>
+    <col min="8" max="8" width="83.7109375" customWidth="1"/>
+    <col min="1023" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="115.5" spans="1:8">
+    <row r="3" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1335,10 +708,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1352,7 +725,6 @@
       <c r="E5" s="5">
         <v>129</v>
       </c>
-      <c r="F5"/>
       <c r="G5" s="16">
         <v>0</v>
       </c>
@@ -1360,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1374,7 +746,6 @@
       <c r="E6" s="5">
         <v>130</v>
       </c>
-      <c r="F6"/>
       <c r="G6" s="16">
         <v>0</v>
       </c>
@@ -1382,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1396,7 +767,6 @@
         <v>1500</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" s="16">
         <v>0</v>
       </c>
@@ -1404,7 +774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1418,7 +788,6 @@
         <v>5000</v>
       </c>
       <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" s="17">
         <v>0</v>
       </c>
@@ -1426,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1448,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1462,7 +831,6 @@
       <c r="E10" s="5">
         <v>131</v>
       </c>
-      <c r="F10"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
@@ -1470,7 +838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1484,7 +852,6 @@
       <c r="E11" s="5">
         <v>132</v>
       </c>
-      <c r="F11"/>
       <c r="G11" s="17">
         <v>0</v>
       </c>
@@ -1492,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1514,7 +881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1524,7 +891,6 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="8"/>
       <c r="F13">
         <v>2031</v>
@@ -1536,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1546,7 +912,6 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="8"/>
       <c r="F14">
         <v>2021</v>
@@ -1558,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1568,7 +933,6 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="8"/>
       <c r="F15">
         <v>2022</v>
@@ -1580,7 +944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1590,7 +954,6 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="8"/>
       <c r="F16">
         <v>2023</v>
@@ -1602,7 +965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1622,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1642,7 +1005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1662,7 +1025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1682,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1702,7 +1065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1722,7 +1085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1742,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1764,9 +1127,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 

--- a/pet-simulator/Excel/Doll_娃娃内容表.xlsx
+++ b/pet-simulator/Excel/Doll_娃娃内容表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89653BB6-C134-4290-A5C1-C9F1D6B9F5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC906A9-52DC-48DF-8025-7AF89E018A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>int</t>
   </si>
@@ -213,12 +213,36 @@
   <si>
     <t>4372461740910BB3AED89EB18E8FFE09</t>
   </si>
+  <si>
+    <t>至尊水龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊火龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊木龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊土龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊光龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊暗龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,6 +295,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,6 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -810,8 +841,8 @@
       <c r="F9" s="17">
         <v>2017</v>
       </c>
-      <c r="G9" s="17">
-        <v>51</v>
+      <c r="G9" s="16">
+        <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>27</v>
@@ -831,7 +862,7 @@
       <c r="E10" s="5">
         <v>131</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -874,8 +905,8 @@
       <c r="F12" s="17">
         <v>2018</v>
       </c>
-      <c r="G12" s="17">
-        <v>34</v>
+      <c r="G12" s="16">
+        <v>0</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>33</v>
@@ -895,8 +926,8 @@
       <c r="F13">
         <v>2031</v>
       </c>
-      <c r="G13">
-        <v>15</v>
+      <c r="G13" s="16">
+        <v>0</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>35</v>
@@ -1112,7 +1143,7 @@
       <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="F24">
@@ -1123,6 +1154,126 @@
       </c>
       <c r="H24" s="18" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4001</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4002</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4003</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4004</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4005</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4006</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1134,6 +1285,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -1146,15 +1304,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1163,7 +1314,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/Doll_娃娃内容表.xlsx
+++ b/pet-simulator/Excel/Doll_娃娃内容表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC906A9-52DC-48DF-8025-7AF89E018A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BAB8D-94A4-4940-B3BC-8614B6F0AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1172,8 +1172,8 @@
       <c r="G25">
         <v>18</v>
       </c>
-      <c r="H25" t="s">
-        <v>41</v>
+      <c r="H25" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1192,8 +1192,8 @@
       <c r="G26">
         <v>18</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>35</v>
+      <c r="H26" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1212,8 +1212,8 @@
       <c r="G27">
         <v>18</v>
       </c>
-      <c r="H27" t="s">
-        <v>49</v>
+      <c r="H27" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1232,8 +1232,8 @@
       <c r="G28">
         <v>18</v>
       </c>
-      <c r="H28" t="s">
-        <v>53</v>
+      <c r="H28" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1252,8 +1252,8 @@
       <c r="G29">
         <v>14</v>
       </c>
-      <c r="H29" t="s">
-        <v>45</v>
+      <c r="H29" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1272,8 +1272,8 @@
       <c r="G30">
         <v>14</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
+      <c r="H30" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1285,13 +1285,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -1304,8 +1297,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/Doll_娃娃内容表.xlsx
+++ b/pet-simulator/Excel/Doll_娃娃内容表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BAB8D-94A4-4940-B3BC-8614B6F0AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A5A58-A583-413A-A261-8A40961CAE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -251,6 +251,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -271,6 +272,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -651,7 +653,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1212,8 +1214,8 @@
       <c r="G27">
         <v>18</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>35</v>
+      <c r="H27" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1233,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1252,8 +1254,8 @@
       <c r="G29">
         <v>14</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>19</v>
+      <c r="H29" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1272,8 +1274,8 @@
       <c r="G30">
         <v>14</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>21</v>
+      <c r="H30" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1285,6 +1287,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -1297,15 +1306,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1314,7 +1316,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/Doll_娃娃内容表.xlsx
+++ b/pet-simulator/Excel/Doll_娃娃内容表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A5A58-A583-413A-A261-8A40961CAE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8EEBD-B6A3-4C7E-BCAC-F1C1DDF88D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>int</t>
   </si>
@@ -106,135 +106,163 @@
     <t>68E0BD6A41C9DD9A8E4105A12325C04D</t>
   </si>
   <si>
+    <t>48623D77418704A2EA6083993417D602</t>
+  </si>
+  <si>
+    <t>钻石奖励2</t>
+  </si>
+  <si>
+    <t>6400494D40708B2791C8FF97E86A8953</t>
+  </si>
+  <si>
+    <t>活动蛋</t>
+  </si>
+  <si>
+    <t>恐龙扛狼</t>
+  </si>
+  <si>
+    <t>9817F50C46373B47076CCDBE3A422AA2</t>
+  </si>
+  <si>
+    <t>糖果龙抗狼</t>
+  </si>
+  <si>
+    <t>76FEF331428C9F7149B371A9D8E03EAE</t>
+  </si>
+  <si>
+    <t>活动蛋2</t>
+  </si>
+  <si>
+    <t>BF6A5ECF40784EAC08BB6C9046B21EF3</t>
+  </si>
+  <si>
+    <t>活动蛋3</t>
+  </si>
+  <si>
+    <t>4F838E874828AFE406E1A0BDC6B22EF8</t>
+  </si>
+  <si>
+    <t>31AF60F74488DBF98FFB18B6BBE29149</t>
+  </si>
+  <si>
+    <t>普通2</t>
+  </si>
+  <si>
+    <t>336215BD432DA69287712B857A865A01</t>
+  </si>
+  <si>
+    <t>海洋1</t>
+  </si>
+  <si>
+    <t>E2DF612B4E826020969BB3B88AAE31F4</t>
+  </si>
+  <si>
+    <t>海洋2</t>
+  </si>
+  <si>
+    <t>A91880AF4108EAFD7040F08ABD7F9F74</t>
+  </si>
+  <si>
+    <t>3123748F4139CE4EFACCF4ACF554AD49</t>
+  </si>
+  <si>
+    <t>恶魔</t>
+  </si>
+  <si>
+    <t>07F1C60940D5FDB59AEC97B5B761B1C3</t>
+  </si>
+  <si>
+    <t>糖果1</t>
+  </si>
+  <si>
+    <t>1AA39B004E1C85603CFBEE9D32F72FB7</t>
+  </si>
+  <si>
+    <t>糖果2</t>
+  </si>
+  <si>
+    <t>8C24FF6C4CD142A9DE7829B3AEC72501</t>
+  </si>
+  <si>
+    <t>古埃及1</t>
+  </si>
+  <si>
+    <t>F921D2384B4D1970BA5B2BA448C1F890</t>
+  </si>
+  <si>
+    <t>古埃及2</t>
+  </si>
+  <si>
+    <t>C9D4076A47E47AC53417CDB9AEE033B8</t>
+  </si>
+  <si>
+    <t>活动蛋3（嘻哈）</t>
+  </si>
+  <si>
+    <t>4372461740910BB3AED89EB18E8FFE09</t>
+  </si>
+  <si>
+    <t>60BB6F82419B4FC5C65B66A735B7853A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>钻石奖励1</t>
-  </si>
-  <si>
-    <t>48623D77418704A2EA6083993417D602</t>
-  </si>
-  <si>
-    <t>钻石奖励2</t>
-  </si>
-  <si>
-    <t>6400494D40708B2791C8FF97E86A8953</t>
-  </si>
-  <si>
-    <t>活动蛋</t>
-  </si>
-  <si>
-    <t>60BB6F82419B4FC5C65B66A735B7853A</t>
-  </si>
-  <si>
-    <t>恐龙扛狼</t>
-  </si>
-  <si>
-    <t>9817F50C46373B47076CCDBE3A422AA2</t>
-  </si>
-  <si>
-    <t>糖果龙抗狼</t>
-  </si>
-  <si>
-    <t>76FEF331428C9F7149B371A9D8E03EAE</t>
-  </si>
-  <si>
-    <t>活动蛋2</t>
-  </si>
-  <si>
-    <t>BF6A5ECF40784EAC08BB6C9046B21EF3</t>
-  </si>
-  <si>
-    <t>活动蛋3</t>
-  </si>
-  <si>
-    <t>4F838E874828AFE406E1A0BDC6B22EF8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>普通1</t>
-  </si>
-  <si>
-    <t>31AF60F74488DBF98FFB18B6BBE29149</t>
-  </si>
-  <si>
-    <t>普通2</t>
-  </si>
-  <si>
-    <t>336215BD432DA69287712B857A865A01</t>
-  </si>
-  <si>
-    <t>海洋1</t>
-  </si>
-  <si>
-    <t>E2DF612B4E826020969BB3B88AAE31F4</t>
-  </si>
-  <si>
-    <t>海洋2</t>
-  </si>
-  <si>
-    <t>A91880AF4108EAFD7040F08ABD7F9F74</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>天堂</t>
-  </si>
-  <si>
-    <t>3123748F4139CE4EFACCF4ACF554AD49</t>
-  </si>
-  <si>
-    <t>恶魔</t>
-  </si>
-  <si>
-    <t>07F1C60940D5FDB59AEC97B5B761B1C3</t>
-  </si>
-  <si>
-    <t>糖果1</t>
-  </si>
-  <si>
-    <t>1AA39B004E1C85603CFBEE9D32F72FB7</t>
-  </si>
-  <si>
-    <t>糖果2</t>
-  </si>
-  <si>
-    <t>8C24FF6C4CD142A9DE7829B3AEC72501</t>
-  </si>
-  <si>
-    <t>古埃及1</t>
-  </si>
-  <si>
-    <t>F921D2384B4D1970BA5B2BA448C1F890</t>
-  </si>
-  <si>
-    <t>古埃及2</t>
-  </si>
-  <si>
-    <t>C9D4076A47E47AC53417CDB9AEE033B8</t>
-  </si>
-  <si>
-    <t>活动蛋3（嘻哈）</t>
-  </si>
-  <si>
-    <t>4372461740910BB3AED89EB18E8FFE09</t>
-  </si>
-  <si>
-    <t>至尊水龙蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊火龙蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊木龙蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊土龙蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊光龙蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊暗龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A945339C4F26366EF2B7248D2A75B3AE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1984AA39459F6BE69361FCB0A59F8083</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604BDEC04B38CF8DE31EF1A906959AB3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D513EB847F68473839F4392F64A82D5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFD058B04D95865F67E391AB5ADE977E</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D6E042D4E662BCF60876B9EC9DC9A7E</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙娘蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙娘蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>木龙娘蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>土龙娘蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光龙娘蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗龙娘蛋</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -299,9 +327,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,7 +401,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,7 +690,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -790,8 +827,8 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
+      <c r="B7" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -804,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -812,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -825,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -833,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -846,8 +883,8 @@
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>27</v>
+      <c r="H9" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -855,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -868,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -876,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -889,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -897,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -911,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -919,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -932,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -940,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -953,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -961,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -974,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -982,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -995,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1003,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1015,15 +1052,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
+      <c r="B18" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1035,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1043,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1055,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1063,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1075,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1083,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1095,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1103,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1115,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1123,7 +1160,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -1135,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1143,7 +1180,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -1155,15 +1192,15 @@
         <v>0</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>58</v>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -1174,16 +1211,16 @@
       <c r="G25">
         <v>18</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>27</v>
+      <c r="H25" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>59</v>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
@@ -1194,16 +1231,16 @@
       <c r="G26">
         <v>18</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>27</v>
+      <c r="H26" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>60</v>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
@@ -1214,16 +1251,16 @@
       <c r="G27">
         <v>18</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>33</v>
+      <c r="H27" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>61</v>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
@@ -1234,16 +1271,16 @@
       <c r="G28">
         <v>18</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>33</v>
+      <c r="H28" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>62</v>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
@@ -1254,16 +1291,16 @@
       <c r="G29">
         <v>14</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>35</v>
+      <c r="H29" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>63</v>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -1274,8 +1311,8 @@
       <c r="G30">
         <v>14</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>35</v>
+      <c r="H30" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
